--- a/PowerQueryData.xlsx
+++ b/PowerQueryData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtjansen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtjansen\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B481076-1AB5-4F2F-9CF3-63FA18DEFD2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607D7017-8B48-4295-A434-B4785D784A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{B6975B35-8499-4F7B-B754-9C2A66646783}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B6975B35-8499-4F7B-B754-9C2A66646783}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pivoting" sheetId="1" r:id="rId1"/>
+    <sheet name="Unpivoting" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,15 +31,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Factor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Year</t>
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>Factory</t>
+  </si>
+  <si>
+    <t>Chapel Hill</t>
+  </si>
+  <si>
+    <t>Raleigh</t>
+  </si>
+  <si>
+    <t>Durham</t>
   </si>
 </sst>
 </file>
@@ -74,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,198 +403,269 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86882A33-A4E3-4FD0-A6A8-5D5D0F465135}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>2001</v>
+      </c>
+      <c r="C2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>2001</v>
+      </c>
+      <c r="C3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>2001</v>
+      </c>
+      <c r="C4">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>2001</v>
+      </c>
+      <c r="C5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>101</v>
+      </c>
+      <c r="B6">
+        <v>2002</v>
+      </c>
+      <c r="C6">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>102</v>
+      </c>
+      <c r="B7">
+        <v>2002</v>
+      </c>
+      <c r="C7">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>103</v>
+      </c>
+      <c r="B8">
+        <v>2002</v>
+      </c>
+      <c r="C8">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>104</v>
+      </c>
+      <c r="B9">
+        <v>2002</v>
+      </c>
+      <c r="C9">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>101</v>
+      </c>
+      <c r="B10">
+        <v>2003</v>
+      </c>
+      <c r="C10">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>102</v>
+      </c>
+      <c r="B11">
+        <v>2003</v>
+      </c>
+      <c r="C11">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>103</v>
+      </c>
+      <c r="B12">
+        <v>2003</v>
+      </c>
+      <c r="C12">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>104</v>
+      </c>
+      <c r="B13">
+        <v>2003</v>
+      </c>
+      <c r="C13">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>101</v>
+      </c>
+      <c r="B14">
+        <v>2004</v>
+      </c>
+      <c r="C14">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>102</v>
+      </c>
+      <c r="B15">
+        <v>2004</v>
+      </c>
+      <c r="C15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>103</v>
+      </c>
+      <c r="B16">
+        <v>2004</v>
+      </c>
+      <c r="C16">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>104</v>
+      </c>
+      <c r="B17">
+        <v>2004</v>
+      </c>
+      <c r="C17">
+        <v>816</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7120A1C8-06B7-42B0-AB81-9D071813745F}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>101</v>
-      </c>
-      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="1">
+        <v>48000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>290000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>189000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2001</v>
       </c>
-      <c r="C2">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>102</v>
-      </c>
-      <c r="B3">
-        <v>2001</v>
-      </c>
-      <c r="C3">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>49000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>302000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>193000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>103</v>
-      </c>
-      <c r="B4">
-        <v>2001</v>
-      </c>
-      <c r="C4">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>104</v>
-      </c>
-      <c r="B5">
-        <v>2001</v>
-      </c>
-      <c r="C5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>101</v>
-      </c>
-      <c r="B6">
         <v>2002</v>
       </c>
-      <c r="C6">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>102</v>
-      </c>
-      <c r="B7">
-        <v>2002</v>
-      </c>
-      <c r="C7">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>103</v>
-      </c>
-      <c r="B8">
-        <v>2002</v>
-      </c>
-      <c r="C8">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>104</v>
-      </c>
-      <c r="B9">
-        <v>2002</v>
-      </c>
-      <c r="C9">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>101</v>
-      </c>
-      <c r="B10">
-        <v>2003</v>
-      </c>
-      <c r="C10">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>102</v>
-      </c>
-      <c r="B11">
-        <v>2003</v>
-      </c>
-      <c r="C11">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>103</v>
-      </c>
-      <c r="B12">
-        <v>2003</v>
-      </c>
-      <c r="C12">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>104</v>
-      </c>
-      <c r="B13">
-        <v>2003</v>
-      </c>
-      <c r="C13">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>101</v>
-      </c>
-      <c r="B14">
-        <v>2004</v>
-      </c>
-      <c r="C14">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>102</v>
-      </c>
-      <c r="B15">
-        <v>2004</v>
-      </c>
-      <c r="C15">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>103</v>
-      </c>
-      <c r="B16">
-        <v>2004</v>
-      </c>
-      <c r="C16">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>104</v>
-      </c>
-      <c r="B17">
-        <v>2004</v>
-      </c>
-      <c r="C17">
-        <v>816</v>
+      <c r="B4" s="1">
+        <v>49000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>313000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>197000</v>
       </c>
     </row>
   </sheetData>
